--- a/ResultDataNew.xlsx
+++ b/ResultDataNew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="3000" windowWidth="51200" windowHeight="27020" tabRatio="500"/>
+    <workbookView xWindow="17220" yWindow="460" windowWidth="33820" windowHeight="27020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Flow</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>Cards_Fries</t>
+  </si>
+  <si>
+    <t>VIS_paper</t>
+  </si>
+  <si>
+    <t>PopCha</t>
+  </si>
+  <si>
+    <t>Flow and Angle Variance</t>
+  </si>
+  <si>
+    <t>Only Flow</t>
+  </si>
+  <si>
+    <t>Only Angle Variance</t>
+  </si>
+  <si>
+    <t>No Flow, No Angle Variance</t>
+  </si>
+  <si>
+    <t>Avg Freq</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -255,6 +279,3876 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Compactness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0572509186246902"/>
+          <c:y val="0.125604562850216"/>
+          <c:w val="0.94274908137531"/>
+          <c:h val="0.726459028126814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flow and Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Flow, No Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2008968384"/>
+        <c:axId val="-2017166000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2008968384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2017166000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2017166000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2008968384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.205398037423803"/>
+          <c:y val="0.928599457104437"/>
+          <c:w val="0.589203811713928"/>
+          <c:h val="0.0714006466854962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Display Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flow and Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Flow, No Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1830620032"/>
+        <c:axId val="1834377680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1830620032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834377680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834377680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830620032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.204096472712875"/>
+          <c:y val="0.914690834815398"/>
+          <c:w val="0.59180705457425"/>
+          <c:h val="0.0720928532997621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Normalized Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flow and Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Only Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Flow, No Angle Variance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>WikiNews</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Huffington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CrooksAndLiars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EmptyWheel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Esquire</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FactCheck</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VIS_paper</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PopCha</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cards_PC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cards_Fries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1825658656"/>
+        <c:axId val="1836816400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1825658656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836816400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836816400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1825658656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161899</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>242366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106641</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>193890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132815</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>242365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465344</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>193698</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>695108</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>271450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300535</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>184198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,55 +4414,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z17"/>
+  <dimension ref="A3:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J22" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="12" style="1" customWidth="1"/>
+    <col min="1" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
+    <col min="6" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" style="1" customWidth="1"/>
+    <col min="18" max="29" width="12" style="1" customWidth="1"/>
     <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="14" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="14" t="s">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -970,42 +4871,42 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="14" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="14" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1120,7 +5021,7 @@
         <v>0.5</v>
       </c>
       <c r="N13" s="5">
-        <v>0.501</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O13" s="4">
         <v>0.62</v>
@@ -1192,7 +5093,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="N14" s="5">
-        <v>0.501</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O14" s="4">
         <v>0.68</v>
@@ -1264,7 +5165,7 @@
         <v>0.48</v>
       </c>
       <c r="N15" s="5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O15" s="4">
         <v>0.64</v>
@@ -1336,7 +5237,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="N16" s="9">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O16" s="7">
         <v>0.73</v>
@@ -1363,11 +5264,493 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="7:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="S17" s="11"/>
+    <row r="17" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="21" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="11">
+        <v>0.113</v>
+      </c>
+      <c r="D35" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.109</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0.252</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.191</v>
+      </c>
+      <c r="K35" s="13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="M35" s="13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="11">
+        <v>0.113</v>
+      </c>
+      <c r="D36" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E36" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.107</v>
+      </c>
+      <c r="G36" s="13">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H36" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0.191</v>
+      </c>
+      <c r="K36" s="13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L36" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11">
+        <v>0.111</v>
+      </c>
+      <c r="D37" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E37" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.107</v>
+      </c>
+      <c r="G37" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H37" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0.251</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="L37" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G38" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.248</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M38" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1386,5 +5769,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>